--- a/datasets/My LOR Links.xlsx
+++ b/datasets/My LOR Links.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TSF-Internship[Data_Science_and_Business_Analytics]\ignored\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TSF-Internship[Data_Science_and_Business_Analytics]\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,36 +93,6 @@
     <t>https://www.linkedin.com/in/osamatech786/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6986546796323856384?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6986547096917028865?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6983342073567436800?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6982599055012970496?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6982599280557469697?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6982928370107863040?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6982928378001539072?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6983273718932221953?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6983273948599758848?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:6986224858233737216?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
     <t>50 words at least</t>
   </si>
   <si>
@@ -156,10 +126,40 @@
     <t>https://www.linkedin.com/posts/activity-6986140430526496768-DLFM?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
   <si>
-    <t>https://github.com/osamatech786/TSF-Internship-Data_Science_and_Business_Analytics-/blob/main/Task%231-Prediction%20using%20Supervised%20ML.ipynb</t>
-  </si>
-  <si>
-    <t>https://github.com/osamatech786/TSF-Internship-Data_Science_and_Business_Analytics-/blob/main/Task%232-Prediction%20using%20Unsupervised%20ML.ipynb</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6985891177535270912?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6985891177535270912%2C6986593905840427009%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6983075525783150592?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6983075525783150592%2C6983316531698905088%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6983136411952521216?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6983136411952521216%2C6983331151843086338%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6982212182029578240?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6982212182029578240%2C6983332626174492672%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6982412189965922304?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6982412189965922304%2C6983333447146573824%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6981953602529460224?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6981953602529460224%2C6983334119875203072%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6981888140688936960?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6981888140688936960%2C6983334830243491840%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6983314311070814210?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6983314311070814210%2C6983365339279446016%29&amp;dashCommentUrn=urn%3Ali%3Afsd_comment%3A%286983365339279446016%2Curn%3Ali%3AgroupPost%3A10379184-6983314311070814210%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6986299681223938049?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6986299681223938049%2C6986580038158594048%29&amp;dashCommentUrn=urn%3Ali%3Afsd_comment%3A%286986580038158594048%2Curn%3Ali%3AgroupPost%3A10379184-6986299681223938049%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:groupPost:10379184-6986407582131216384?commentUrn=urn%3Ali%3Acomment%3A%28groupPost%3A10379184-6986407582131216384%2C6986592961287340032%29</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/osamatech786_task1-gripoctober22-gripoct22-activity-6988432516110004226-D9S0?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/osamatech786_task2-gripoctober22-gripoct22-activity-6988432882616659970-ycpT?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -521,10 +521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,8 +570,8 @@
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
+      <c r="K2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -594,8 +594,8 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
+      <c r="K3" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -615,8 +615,8 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>31</v>
+      <c r="K4" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -636,8 +636,8 @@
       <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
+      <c r="K5" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -656,8 +656,8 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
+      <c r="K6" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -674,8 +674,8 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>28</v>
+      <c r="K7" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -692,8 +692,8 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>27</v>
+      <c r="K8" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -710,8 +710,8 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>26</v>
+      <c r="K9" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -731,8 +731,8 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>25</v>
+      <c r="K10" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -752,8 +752,8 @@
       <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>24</v>
+      <c r="K11" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,8 +906,38 @@
         <v>3</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/datasets/My LOR Links.xlsx
+++ b/datasets/My LOR Links.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Tasks you worked on (Can be from any function)</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/osamatech786_task2-gripoctober22-gripoct22-activity-6988432882616659970-ycpT?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://github.com/osamatech786/TSF-Internship-Data_Science_and_Business_Analytics-/blob/main/Task%231-Prediction%20using%20Supervised%20ML.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/osamatech786/TSF-Internship-Data_Science_and_Business_Analytics-/blob/main/Task%232-Prediction%20using%20Unsupervised%20ML.ipynb</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -257,6 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -524,7 +531,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,20 +542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -641,8 +648,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -762,12 +769,21 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="7" t="s">
         <v>24</v>
       </c>
